--- a/doc/notes/Cryptography.xlsx
+++ b/doc/notes/Cryptography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\doc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D7C0F6-57D1-4BF2-9518-C2C644FFC58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACC630E-F6AC-4222-9222-C4D51A9389E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="2" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="2" activeTab="10" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PrivateExponents">'RSA Example'!$F$5:$F$6</definedName>
     <definedName name="TotientFunctions">'RSA Example'!$D$5:$D$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="609">
   <si>
     <t>n = 7 (where 'n' is the prime number)</t>
   </si>
@@ -1875,12 +1875,6 @@
   </si>
   <si>
     <t>g^q mod p</t>
-  </si>
-  <si>
-    <t>k-priv</t>
-  </si>
-  <si>
-    <t>k-pub</t>
   </si>
 </sst>
 </file>
@@ -2160,6 +2154,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2175,8 +2171,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2536,25 +2530,25 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="64" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="64" t="s">
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
       <c r="R2" s="1" t="s">
@@ -2567,31 +2561,31 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="64" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="66"/>
+      <c r="K3" s="68"/>
       <c r="L3" s="18"/>
       <c r="M3" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="66"/>
+      <c r="O3" s="68"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19" t="s">
         <v>99</v>
@@ -4161,10 +4155,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U31" s="67" t="s">
+      <c r="U31" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="V31" s="67"/>
+      <c r="V31" s="69"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U32" t="s">
@@ -4957,10 +4951,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B54CD78-DA54-4D97-89FE-8D893BDB1E65}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4970,18 +4964,18 @@
     <col min="7" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
       </c>
       <c r="E1" t="s">
         <v>607</v>
@@ -4992,797 +4986,767 @@
       <c r="G1" t="s">
         <v>608</v>
       </c>
-      <c r="I1" t="s">
-        <v>609</v>
-      </c>
-      <c r="J1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="64">
+        <v>1</v>
+      </c>
+      <c r="B2" s="64">
+        <v>4</v>
+      </c>
+      <c r="C2" s="64">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <f>A2*B2+1</f>
+      <c r="D2" s="64">
+        <f>C2*B2+1</f>
         <v>29</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>MOD(POWER(D2,B2),C2)</f>
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="64">
+        <f>MOD(POWER(A2,B2),D2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="64">
         <f>E2</f>
         <v>1</v>
       </c>
-      <c r="G2">
-        <f>MOD(POWER(F2,A2),C2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="G2" s="64">
+        <f>MOD(POWER(F2,C2),D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="65">
+        <v>2</v>
+      </c>
+      <c r="B3" s="65">
+        <v>4</v>
+      </c>
+      <c r="C3" s="65">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C30" si="0">A3*B3+1</f>
+      <c r="D3" s="65">
+        <f>C3*B3+1</f>
         <v>29</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E30" si="1">MOD(POWER(D3,B3),C3)</f>
+      <c r="E3" s="65">
+        <f>MOD(POWER(A3,B3),D3)</f>
         <v>16</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F30" si="2">E3</f>
+      <c r="F3" s="65">
+        <f t="shared" ref="F3:F30" si="0">E3</f>
         <v>16</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G30" si="3">MOD(POWER(F3,A3),C3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="G3" s="65">
+        <f>MOD(POWER(F3,C3),D3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="65">
+        <v>3</v>
+      </c>
+      <c r="B4" s="65">
+        <v>4</v>
+      </c>
+      <c r="C4" s="65">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
+      <c r="D4" s="65">
+        <f>C4*B4+1</f>
         <v>29</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
+      <c r="E4" s="65">
+        <f>MOD(POWER(A4,B4),D4)</f>
         <v>23</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
+      <c r="F4" s="65">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="G4" s="65">
+        <f>MOD(POWER(F4,C4),D4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="65">
+        <v>4</v>
+      </c>
+      <c r="B5" s="65">
+        <v>4</v>
+      </c>
+      <c r="C5" s="65">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
+      <c r="D5" s="65">
+        <f>C5*B5+1</f>
         <v>29</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
+      <c r="E5" s="65">
+        <f>MOD(POWER(A5,B5),D5)</f>
         <v>24</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
+      <c r="F5" s="65">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="G5" s="65">
+        <f>MOD(POWER(F5,C5),D5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="65">
+        <v>5</v>
+      </c>
+      <c r="B6" s="65">
+        <v>4</v>
+      </c>
+      <c r="C6" s="65">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
+      <c r="D6" s="65">
+        <f>C6*B6+1</f>
         <v>29</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
+      <c r="E6" s="65">
+        <f>MOD(POWER(A6,B6),D6)</f>
         <v>16</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
+      <c r="F6" s="65">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="G6" s="65">
+        <f>MOD(POWER(F6,C6),D6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="65">
+        <v>6</v>
+      </c>
+      <c r="B7" s="65">
+        <v>4</v>
+      </c>
+      <c r="C7" s="65">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
+      <c r="D7" s="65">
+        <f>C7*B7+1</f>
         <v>29</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
+      <c r="E7" s="65">
+        <f>MOD(POWER(A7,B7),D7)</f>
         <v>20</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
+      <c r="F7" s="65">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="G7" s="65">
+        <f>MOD(POWER(F7,C7),D7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="65">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
+      <c r="B8" s="65">
+        <v>4</v>
+      </c>
+      <c r="C8" s="65">
+        <v>7</v>
+      </c>
+      <c r="D8" s="65">
+        <f>C8*B8+1</f>
         <v>29</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="65">
+        <f>MOD(POWER(A8,B8),D8)</f>
+        <v>23</v>
+      </c>
+      <c r="F8" s="65">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G8" s="65">
+        <f>MOD(POWER(F8,C8),D8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="65">
+        <v>8</v>
+      </c>
+      <c r="B9" s="65">
+        <v>4</v>
+      </c>
+      <c r="C9" s="65">
         <v>7</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
+      <c r="D9" s="65">
+        <f>C9*B9+1</f>
+        <v>29</v>
+      </c>
+      <c r="E9" s="65">
+        <f>MOD(POWER(A9,B9),D9)</f>
+        <v>7</v>
+      </c>
+      <c r="F9" s="65">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G9" s="65">
+        <f>MOD(POWER(F9,C9),D9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="65">
+        <v>9</v>
+      </c>
+      <c r="B10" s="65">
+        <v>4</v>
+      </c>
+      <c r="C10" s="65">
+        <v>7</v>
+      </c>
+      <c r="D10" s="65">
+        <f>C10*B10+1</f>
+        <v>29</v>
+      </c>
+      <c r="E10" s="65">
+        <f>MOD(POWER(A10,B10),D10)</f>
+        <v>7</v>
+      </c>
+      <c r="F10" s="65">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G10" s="65">
+        <f>MOD(POWER(F10,C10),D10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="65">
+        <v>10</v>
+      </c>
+      <c r="B11" s="65">
+        <v>4</v>
+      </c>
+      <c r="C11" s="65">
+        <v>7</v>
+      </c>
+      <c r="D11" s="65">
+        <f>C11*B11+1</f>
+        <v>29</v>
+      </c>
+      <c r="E11" s="65">
+        <f>MOD(POWER(A11,B11),D11)</f>
+        <v>24</v>
+      </c>
+      <c r="F11" s="65">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G11" s="65">
+        <f>MOD(POWER(F11,C11),D11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="65">
+        <v>11</v>
+      </c>
+      <c r="B12" s="65">
+        <v>4</v>
+      </c>
+      <c r="C12" s="65">
+        <v>7</v>
+      </c>
+      <c r="D12" s="65">
+        <f>C12*B12+1</f>
+        <v>29</v>
+      </c>
+      <c r="E12" s="65">
+        <f>MOD(POWER(A12,B12),D12)</f>
+        <v>25</v>
+      </c>
+      <c r="F12" s="65">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G12" s="65">
+        <f>MOD(POWER(F12,C12),D12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="64">
+        <v>12</v>
+      </c>
+      <c r="B13" s="64">
+        <v>4</v>
+      </c>
+      <c r="C13" s="64">
+        <v>7</v>
+      </c>
+      <c r="D13" s="64">
+        <f>C13*B13+1</f>
+        <v>29</v>
+      </c>
+      <c r="E13" s="64">
+        <f>MOD(POWER(A13,B13),D13)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="64">
+        <f>MOD(POWER(F13,C13),D13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="65">
+        <v>13</v>
+      </c>
+      <c r="B14" s="65">
+        <v>4</v>
+      </c>
+      <c r="C14" s="65">
+        <v>7</v>
+      </c>
+      <c r="D14" s="65">
+        <f>C14*B14+1</f>
+        <v>29</v>
+      </c>
+      <c r="E14" s="65">
+        <f>MOD(POWER(A14,B14),D14)</f>
+        <v>25</v>
+      </c>
+      <c r="F14" s="65">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G14" s="65">
+        <f>MOD(POWER(F14,C14),D14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="65">
+        <v>14</v>
+      </c>
+      <c r="B15" s="65">
+        <v>4</v>
+      </c>
+      <c r="C15" s="65">
+        <v>7</v>
+      </c>
+      <c r="D15" s="65">
+        <f>C15*B15+1</f>
+        <v>29</v>
+      </c>
+      <c r="E15" s="65">
+        <f>MOD(POWER(A15,B15),D15)</f>
+        <v>20</v>
+      </c>
+      <c r="F15" s="65">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G15" s="65">
+        <f>MOD(POWER(F15,C15),D15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="65">
+        <v>15</v>
+      </c>
+      <c r="B16" s="65">
+        <v>4</v>
+      </c>
+      <c r="C16" s="65">
+        <v>7</v>
+      </c>
+      <c r="D16" s="65">
+        <f>C16*B16+1</f>
+        <v>29</v>
+      </c>
+      <c r="E16" s="65">
+        <f>MOD(POWER(A16,B16),D16)</f>
+        <v>20</v>
+      </c>
+      <c r="F16" s="65">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G16" s="65">
+        <f>MOD(POWER(F16,C16),D16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="65">
+        <v>16</v>
+      </c>
+      <c r="B17" s="65">
+        <v>4</v>
+      </c>
+      <c r="C17" s="65">
+        <v>7</v>
+      </c>
+      <c r="D17" s="65">
+        <f>C17*B17+1</f>
+        <v>29</v>
+      </c>
+      <c r="E17" s="65">
+        <f>MOD(POWER(A17,B17),D17)</f>
+        <v>25</v>
+      </c>
+      <c r="F17" s="65">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G17" s="65">
+        <f>MOD(POWER(F17,C17),D17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="64">
+        <v>17</v>
+      </c>
+      <c r="B18" s="64">
+        <v>4</v>
+      </c>
+      <c r="C18" s="64">
+        <v>7</v>
+      </c>
+      <c r="D18" s="64">
+        <f>C18*B18+1</f>
+        <v>29</v>
+      </c>
+      <c r="E18" s="64">
+        <f>MOD(POWER(A18,B18),D18)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="64">
+        <f>MOD(POWER(F18,C18),D18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="65">
+        <v>18</v>
+      </c>
+      <c r="B19" s="65">
+        <v>4</v>
+      </c>
+      <c r="C19" s="65">
+        <v>7</v>
+      </c>
+      <c r="D19" s="65">
+        <f>C19*B19+1</f>
+        <v>29</v>
+      </c>
+      <c r="E19" s="65">
+        <f>MOD(POWER(A19,B19),D19)</f>
+        <v>25</v>
+      </c>
+      <c r="F19" s="65">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G19" s="65">
+        <f>MOD(POWER(F19,C19),D19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="65">
+        <v>19</v>
+      </c>
+      <c r="B20" s="65">
+        <v>4</v>
+      </c>
+      <c r="C20" s="65">
+        <v>7</v>
+      </c>
+      <c r="D20" s="65">
+        <f>C20*B20+1</f>
+        <v>29</v>
+      </c>
+      <c r="E20" s="65">
+        <f>MOD(POWER(A20,B20),D20)</f>
+        <v>24</v>
+      </c>
+      <c r="F20" s="65">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G20" s="65">
+        <f>MOD(POWER(F20,C20),D20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="65">
+        <v>20</v>
+      </c>
+      <c r="B21" s="65">
+        <v>4</v>
+      </c>
+      <c r="C21" s="65">
+        <v>7</v>
+      </c>
+      <c r="D21" s="65">
+        <f>C21*B21+1</f>
+        <v>29</v>
+      </c>
+      <c r="E21" s="65">
+        <f>MOD(POWER(A21,B21),D21)</f>
+        <v>7</v>
+      </c>
+      <c r="F21" s="65">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G21" s="65">
+        <f>MOD(POWER(F21,C21),D21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="65">
+        <v>21</v>
+      </c>
+      <c r="B22" s="65">
+        <v>4</v>
+      </c>
+      <c r="C22" s="65">
+        <v>7</v>
+      </c>
+      <c r="D22" s="65">
+        <f>C22*B22+1</f>
+        <v>29</v>
+      </c>
+      <c r="E22" s="65">
+        <f>MOD(POWER(A22,B22),D22)</f>
+        <v>7</v>
+      </c>
+      <c r="F22" s="65">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G22" s="65">
+        <f>MOD(POWER(F22,C22),D22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="65">
+        <v>22</v>
+      </c>
+      <c r="B23" s="65">
+        <v>4</v>
+      </c>
+      <c r="C23" s="65">
+        <v>7</v>
+      </c>
+      <c r="D23" s="65">
+        <f>C23*B23+1</f>
+        <v>29</v>
+      </c>
+      <c r="E23" s="65">
+        <f>MOD(POWER(A23,B23),D23)</f>
         <v>23</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
+      <c r="F23" s="65">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="G23" s="65">
+        <f>MOD(POWER(F23,C23),D23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="65">
+        <v>23</v>
+      </c>
+      <c r="B24" s="65">
+        <v>4</v>
+      </c>
+      <c r="C24" s="65">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
+      <c r="D24" s="65">
+        <f>C24*B24+1</f>
         <v>29</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
+      <c r="E24" s="65">
+        <f>MOD(POWER(A24,B24),D24)</f>
+        <v>20</v>
+      </c>
+      <c r="F24" s="65">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="65">
+        <f>MOD(POWER(F24,C24),D24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="65">
+        <v>24</v>
+      </c>
+      <c r="B25" s="65">
+        <v>4</v>
+      </c>
+      <c r="C25" s="65">
         <v>7</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
+      <c r="D25" s="65">
+        <f>C25*B25+1</f>
+        <v>29</v>
+      </c>
+      <c r="E25" s="65">
+        <f>MOD(POWER(A25,B25),D25)</f>
+        <v>16</v>
+      </c>
+      <c r="F25" s="65">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G25" s="65">
+        <f>MOD(POWER(F25,C25),D25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="65">
+        <v>25</v>
+      </c>
+      <c r="B26" s="65">
+        <v>4</v>
+      </c>
+      <c r="C26" s="65">
         <v>7</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="D26" s="65">
+        <f>C26*B26+1</f>
+        <v>29</v>
+      </c>
+      <c r="E26" s="65">
+        <f>MOD(POWER(A26,B26),D26)</f>
+        <v>24</v>
+      </c>
+      <c r="F26" s="65">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G26" s="65">
+        <f>MOD(POWER(F26,C26),D26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="65">
+        <v>26</v>
+      </c>
+      <c r="B27" s="65">
+        <v>4</v>
+      </c>
+      <c r="C27" s="65">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
+      <c r="D27" s="65">
+        <f>C27*B27+1</f>
         <v>29</v>
       </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
+      <c r="E27" s="65">
+        <f>MOD(POWER(A27,B27),D27)</f>
+        <v>23</v>
+      </c>
+      <c r="F27" s="65">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G27" s="65">
+        <f>MOD(POWER(F27,C27),D27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="65">
+        <v>27</v>
+      </c>
+      <c r="B28" s="65">
+        <v>4</v>
+      </c>
+      <c r="C28" s="65">
         <v>7</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
+      <c r="D28" s="65">
+        <f>C28*B28+1</f>
+        <v>29</v>
+      </c>
+      <c r="E28" s="65">
+        <f>MOD(POWER(A28,B28),D28)</f>
+        <v>16</v>
+      </c>
+      <c r="F28" s="65">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G28" s="65">
+        <f>MOD(POWER(F28,C28),D28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="64">
+        <v>28</v>
+      </c>
+      <c r="B29" s="64">
+        <v>4</v>
+      </c>
+      <c r="C29" s="64">
         <v>7</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
+      <c r="D29" s="64">
+        <f>C29*B29+1</f>
         <v>29</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D23">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D24">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D27">
-        <v>26</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D28">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D30">
-        <v>29</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E29" s="64">
+        <f>MOD(POWER(A29,B29),D29)</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="64">
+        <f>MOD(POWER(F29,C29),D29)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H30">
+    <sortCondition ref="H2:H30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5794,7 +5758,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D35" sqref="D35"/>
-      <selection pane="topRight" activeCell="D35" sqref="D35"/>
+      <selection pane="topRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5903,123 +5867,123 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="69">
+      <c r="A3" s="64">
         <f t="shared" ref="A3:AD18" ca="1" si="0">MOD(POWER($A3,A$2),29)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="J3" s="69">
+      <c r="J3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="M3" s="69">
+      <c r="M3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="O3" s="69">
+      <c r="O3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="P3" s="69">
+      <c r="P3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q3" s="69">
+      <c r="Q3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="R3" s="69">
+      <c r="R3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="S3" s="69">
+      <c r="S3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="T3" s="69">
+      <c r="T3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="U3" s="69">
+      <c r="U3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="V3" s="69">
+      <c r="V3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="W3" s="69">
+      <c r="W3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="X3" s="69">
+      <c r="X3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y3" s="69">
+      <c r="Y3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z3" s="69">
+      <c r="Z3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA3" s="69">
+      <c r="AA3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB3" s="69">
+      <c r="AB3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC3" s="69">
+      <c r="AC3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="AD3" s="69">
+      <c r="AD3" s="64">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -6044,7 +6008,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -6169,7 +6133,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="65">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -6293,7 +6257,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="65">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -6411,7 +6375,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -6526,7 +6490,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="65">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -6624,109 +6588,122 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="70">
+      <c r="A9" s="65">
         <v>7</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="65">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="65">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="65">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="65">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="65">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="65">
         <f>MOD(POWER($A9,H$2),29)</f>
         <v>1</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="65">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J9" s="70">
+      <c r="J9" s="65">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K9" s="70">
+      <c r="K9" s="65">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="L9" s="70">
+      <c r="L9" s="65">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="M9" s="70">
+      <c r="M9" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="N9" s="70">
+      <c r="N9" s="65">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="O9" s="70">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P9" s="70">
+      <c r="O9" s="65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="65">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q9" s="70">
+      <c r="Q9" s="65">
+        <f>MOD(POWER($A9,MOD(Q$2,$H$2)),29)</f>
         <v>20</v>
       </c>
-      <c r="R9" s="70">
+      <c r="R9" s="65">
+        <f>MOD(POWER($A9,MOD(R$2,$H$2)),29)</f>
         <v>24</v>
       </c>
-      <c r="S9" s="70">
+      <c r="S9" s="65">
+        <f>MOD(POWER($A9,MOD(S$2,$H$2)),29)</f>
         <v>23</v>
       </c>
-      <c r="T9" s="70">
+      <c r="T9" s="65">
+        <f>MOD(POWER($A9,MOD(T$2,$H$2)),29)</f>
         <v>16</v>
       </c>
-      <c r="U9" s="70">
+      <c r="U9" s="65">
+        <f>MOD(POWER($A9,MOD(U$2,$H$2)),29)</f>
         <v>25</v>
       </c>
-      <c r="V9" s="70">
-        <v>1</v>
-      </c>
-      <c r="W9" s="70">
+      <c r="V9" s="65">
+        <f>MOD(POWER($A9,MOD(V$2,$H$2)),29)</f>
+        <v>1</v>
+      </c>
+      <c r="W9" s="65">
+        <f>MOD(POWER($A9,MOD(W$2,$H$2)),29)</f>
         <v>7</v>
       </c>
-      <c r="X9" s="70">
+      <c r="X9" s="65">
+        <f>MOD(POWER($A9,MOD(X$2,$H$2)),29)</f>
         <v>20</v>
       </c>
-      <c r="Y9" s="70">
+      <c r="Y9" s="65">
+        <f>MOD(POWER($A9,MOD(Y$2,$H$2)),29)</f>
         <v>24</v>
       </c>
-      <c r="Z9" s="70">
+      <c r="Z9" s="65">
+        <f>MOD(POWER($A9,MOD(Z$2,$H$2)),29)</f>
         <v>23</v>
       </c>
-      <c r="AA9" s="70">
+      <c r="AA9" s="65">
+        <f>MOD(POWER($A9,MOD(AA$2,$H$2)),29)</f>
         <v>16</v>
       </c>
-      <c r="AB9" s="70">
+      <c r="AB9" s="65">
+        <f>MOD(POWER($A9,MOD(AB$2,$H$2)),29)</f>
         <v>25</v>
       </c>
-      <c r="AC9" s="70">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="70">
+      <c r="AC9" s="65">
+        <f>MOD(POWER($A9,MOD(AC$2,$H$2)),29)</f>
+        <v>1</v>
+      </c>
+      <c r="AD9" s="65">
         <v>7</v>
       </c>
       <c r="AE9">
@@ -6750,7 +6727,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="65">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6860,7 +6837,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="65">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6970,7 +6947,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="65">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -7079,7 +7056,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="65">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -7187,7 +7164,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7295,7 +7272,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="65">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -7403,7 +7380,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="65">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7510,7 +7487,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="65">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7602,105 +7579,105 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" s="70">
+      <c r="A18" s="65">
         <v>16</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="65">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="65">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="65">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="65">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="65">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G18" s="65">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H18" s="70">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="70">
+      <c r="H18" s="65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="65">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="K18" s="70">
+      <c r="K18" s="65">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L18" s="70">
+      <c r="L18" s="65">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="M18" s="70">
+      <c r="M18" s="65">
         <v>23</v>
       </c>
-      <c r="N18" s="70">
+      <c r="N18" s="65">
         <v>20</v>
       </c>
-      <c r="O18" s="70">
-        <v>1</v>
-      </c>
-      <c r="P18" s="70">
+      <c r="O18" s="65">
+        <v>1</v>
+      </c>
+      <c r="P18" s="65">
         <v>16</v>
       </c>
-      <c r="Q18" s="70">
+      <c r="Q18" s="65">
         <v>24</v>
       </c>
-      <c r="R18" s="70">
+      <c r="R18" s="65">
         <v>7</v>
       </c>
-      <c r="S18" s="70">
+      <c r="S18" s="65">
         <v>25</v>
       </c>
-      <c r="T18" s="70">
+      <c r="T18" s="65">
         <v>23</v>
       </c>
-      <c r="U18" s="70">
+      <c r="U18" s="65">
         <v>20</v>
       </c>
-      <c r="V18" s="70">
-        <v>1</v>
-      </c>
-      <c r="W18" s="70">
+      <c r="V18" s="65">
+        <v>1</v>
+      </c>
+      <c r="W18" s="65">
         <v>16</v>
       </c>
-      <c r="X18" s="70">
+      <c r="X18" s="65">
         <v>24</v>
       </c>
-      <c r="Y18" s="70">
+      <c r="Y18" s="65">
         <v>7</v>
       </c>
-      <c r="Z18" s="70">
+      <c r="Z18" s="65">
         <v>25</v>
       </c>
-      <c r="AA18" s="70">
+      <c r="AA18" s="65">
         <v>23</v>
       </c>
-      <c r="AB18" s="70">
+      <c r="AB18" s="65">
         <v>20</v>
       </c>
-      <c r="AC18" s="70">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="70">
+      <c r="AC18" s="65">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="65">
         <v>16</v>
       </c>
       <c r="AE18">
@@ -7724,7 +7701,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -7809,7 +7786,7 @@
       <c r="AD19">
         <v>17</v>
       </c>
-      <c r="AE19" s="69">
+      <c r="AE19" s="64">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -7830,7 +7807,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="65">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -7936,7 +7913,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="65">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -8027,104 +8004,104 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="70">
+      <c r="A22" s="65">
         <v>20</v>
       </c>
-      <c r="B22" s="70">
+      <c r="B22" s="65">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="65">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="65">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="65">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="65">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="65">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H22" s="70">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="70">
+      <c r="H22" s="65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="65">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J22" s="70">
+      <c r="J22" s="65">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="K22" s="70">
+      <c r="K22" s="65">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="L22" s="70">
+      <c r="L22" s="65">
         <v>7</v>
       </c>
-      <c r="M22" s="70">
+      <c r="M22" s="65">
         <v>24</v>
       </c>
-      <c r="N22" s="70">
+      <c r="N22" s="65">
         <v>16</v>
       </c>
-      <c r="O22" s="70">
-        <v>1</v>
-      </c>
-      <c r="P22" s="70">
+      <c r="O22" s="65">
+        <v>1</v>
+      </c>
+      <c r="P22" s="65">
         <v>20</v>
       </c>
-      <c r="Q22" s="70">
+      <c r="Q22" s="65">
         <v>23</v>
       </c>
-      <c r="R22" s="70">
+      <c r="R22" s="65">
         <v>25</v>
       </c>
-      <c r="S22" s="70">
+      <c r="S22" s="65">
         <v>7</v>
       </c>
-      <c r="T22" s="70">
+      <c r="T22" s="65">
         <v>24</v>
       </c>
-      <c r="U22" s="70">
+      <c r="U22" s="65">
         <v>16</v>
       </c>
-      <c r="V22" s="70">
-        <v>1</v>
-      </c>
-      <c r="W22" s="70">
+      <c r="V22" s="65">
+        <v>1</v>
+      </c>
+      <c r="W22" s="65">
         <v>20</v>
       </c>
-      <c r="X22" s="70">
+      <c r="X22" s="65">
         <v>23</v>
       </c>
-      <c r="Y22" s="70">
+      <c r="Y22" s="65">
         <v>25</v>
       </c>
-      <c r="Z22" s="70">
+      <c r="Z22" s="65">
         <v>7</v>
       </c>
-      <c r="AA22" s="70">
+      <c r="AA22" s="65">
         <v>24</v>
       </c>
-      <c r="AB22" s="70">
+      <c r="AB22" s="65">
         <v>16</v>
       </c>
-      <c r="AC22" s="70">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="70">
+      <c r="AC22" s="65">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="65">
         <v>20</v>
       </c>
       <c r="AE22">
@@ -8148,7 +8125,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="65">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -8254,7 +8231,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="65">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -8345,103 +8322,103 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="70">
+      <c r="A25" s="65">
         <v>23</v>
       </c>
-      <c r="B25" s="70">
+      <c r="B25" s="65">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="65">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="65">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="65">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="65">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G25" s="70">
+      <c r="G25" s="65">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H25" s="70">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="70">
+      <c r="H25" s="65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="65">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="J25" s="70">
+      <c r="J25" s="65">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K25" s="70">
+      <c r="K25" s="65">
         <v>16</v>
       </c>
-      <c r="L25" s="70">
+      <c r="L25" s="65">
         <v>20</v>
       </c>
-      <c r="M25" s="70">
+      <c r="M25" s="65">
         <v>25</v>
       </c>
-      <c r="N25" s="70">
+      <c r="N25" s="65">
         <v>24</v>
       </c>
-      <c r="O25" s="70">
-        <v>1</v>
-      </c>
-      <c r="P25" s="70">
+      <c r="O25" s="65">
+        <v>1</v>
+      </c>
+      <c r="P25" s="65">
         <v>23</v>
       </c>
-      <c r="Q25" s="70">
+      <c r="Q25" s="65">
         <v>7</v>
       </c>
-      <c r="R25" s="70">
+      <c r="R25" s="65">
         <v>16</v>
       </c>
-      <c r="S25" s="70">
+      <c r="S25" s="65">
         <v>20</v>
       </c>
-      <c r="T25" s="70">
+      <c r="T25" s="65">
         <v>25</v>
       </c>
-      <c r="U25" s="70">
+      <c r="U25" s="65">
         <v>24</v>
       </c>
-      <c r="V25" s="70">
-        <v>1</v>
-      </c>
-      <c r="W25" s="70">
+      <c r="V25" s="65">
+        <v>1</v>
+      </c>
+      <c r="W25" s="65">
         <v>23</v>
       </c>
-      <c r="X25" s="70">
+      <c r="X25" s="65">
         <v>7</v>
       </c>
-      <c r="Y25" s="70">
+      <c r="Y25" s="65">
         <v>16</v>
       </c>
-      <c r="Z25" s="70">
+      <c r="Z25" s="65">
         <v>20</v>
       </c>
-      <c r="AA25" s="70">
+      <c r="AA25" s="65">
         <v>25</v>
       </c>
-      <c r="AB25" s="70">
+      <c r="AB25" s="65">
         <v>24</v>
       </c>
-      <c r="AC25" s="70">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="70">
+      <c r="AC25" s="65">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="65">
         <v>23</v>
       </c>
       <c r="AE25">
@@ -8450,103 +8427,103 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="70">
+      <c r="A26" s="65">
         <v>24</v>
       </c>
-      <c r="B26" s="70">
+      <c r="B26" s="65">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="65">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="65">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="65">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F26" s="70">
+      <c r="F26" s="65">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="65">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="H26" s="70">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="70">
+      <c r="H26" s="65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="65">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="J26" s="70">
+      <c r="J26" s="65">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K26" s="70">
+      <c r="K26" s="65">
         <v>20</v>
       </c>
-      <c r="L26" s="70">
+      <c r="L26" s="65">
         <v>16</v>
       </c>
-      <c r="M26" s="70">
+      <c r="M26" s="65">
         <v>7</v>
       </c>
-      <c r="N26" s="70">
+      <c r="N26" s="65">
         <v>23</v>
       </c>
-      <c r="O26" s="70">
-        <v>1</v>
-      </c>
-      <c r="P26" s="70">
+      <c r="O26" s="65">
+        <v>1</v>
+      </c>
+      <c r="P26" s="65">
         <v>24</v>
       </c>
-      <c r="Q26" s="70">
+      <c r="Q26" s="65">
         <v>25</v>
       </c>
-      <c r="R26" s="70">
+      <c r="R26" s="65">
         <v>20</v>
       </c>
-      <c r="S26" s="70">
+      <c r="S26" s="65">
         <v>16</v>
       </c>
-      <c r="T26" s="70">
+      <c r="T26" s="65">
         <v>7</v>
       </c>
-      <c r="U26" s="70">
+      <c r="U26" s="65">
         <v>23</v>
       </c>
-      <c r="V26" s="70">
-        <v>1</v>
-      </c>
-      <c r="W26" s="70">
+      <c r="V26" s="65">
+        <v>1</v>
+      </c>
+      <c r="W26" s="65">
         <v>24</v>
       </c>
-      <c r="X26" s="70">
+      <c r="X26" s="65">
         <v>25</v>
       </c>
-      <c r="Y26" s="70">
+      <c r="Y26" s="65">
         <v>20</v>
       </c>
-      <c r="Z26" s="70">
+      <c r="Z26" s="65">
         <v>16</v>
       </c>
-      <c r="AA26" s="70">
+      <c r="AA26" s="65">
         <v>7</v>
       </c>
-      <c r="AB26" s="70">
+      <c r="AB26" s="65">
         <v>23</v>
       </c>
-      <c r="AC26" s="70">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="70">
+      <c r="AC26" s="65">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="65">
         <v>24</v>
       </c>
       <c r="AE26">
@@ -8555,103 +8532,103 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="70">
+      <c r="A27" s="65">
         <v>25</v>
       </c>
-      <c r="B27" s="70">
+      <c r="B27" s="65">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="65">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="65">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="65">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="65">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="65">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H27" s="70">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="70">
+      <c r="H27" s="65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="65">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="J27" s="70">
+      <c r="J27" s="65">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="K27" s="70">
+      <c r="K27" s="65">
         <v>23</v>
       </c>
-      <c r="L27" s="70">
+      <c r="L27" s="65">
         <v>24</v>
       </c>
-      <c r="M27" s="70">
+      <c r="M27" s="65">
         <v>20</v>
       </c>
-      <c r="N27" s="70">
+      <c r="N27" s="65">
         <v>7</v>
       </c>
-      <c r="O27" s="70">
-        <v>1</v>
-      </c>
-      <c r="P27" s="70">
+      <c r="O27" s="65">
+        <v>1</v>
+      </c>
+      <c r="P27" s="65">
         <v>25</v>
       </c>
-      <c r="Q27" s="70">
+      <c r="Q27" s="65">
         <v>16</v>
       </c>
-      <c r="R27" s="70">
+      <c r="R27" s="65">
         <v>23</v>
       </c>
-      <c r="S27" s="70">
+      <c r="S27" s="65">
         <v>24</v>
       </c>
-      <c r="T27" s="70">
+      <c r="T27" s="65">
         <v>20</v>
       </c>
-      <c r="U27" s="70">
+      <c r="U27" s="65">
         <v>7</v>
       </c>
-      <c r="V27" s="70">
-        <v>1</v>
-      </c>
-      <c r="W27" s="70">
+      <c r="V27" s="65">
+        <v>1</v>
+      </c>
+      <c r="W27" s="65">
         <v>25</v>
       </c>
-      <c r="X27" s="70">
+      <c r="X27" s="65">
         <v>16</v>
       </c>
-      <c r="Y27" s="70">
+      <c r="Y27" s="65">
         <v>23</v>
       </c>
-      <c r="Z27" s="70">
+      <c r="Z27" s="65">
         <v>24</v>
       </c>
-      <c r="AA27" s="70">
+      <c r="AA27" s="65">
         <v>20</v>
       </c>
-      <c r="AB27" s="70">
+      <c r="AB27" s="65">
         <v>7</v>
       </c>
-      <c r="AC27" s="70">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="70">
+      <c r="AC27" s="65">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="65">
         <v>25</v>
       </c>
       <c r="AE27">
@@ -8675,7 +8652,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="65">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -8780,7 +8757,7 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="65">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -8870,103 +8847,103 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A30" s="69">
+      <c r="A30" s="64">
         <v>28</v>
       </c>
-      <c r="B30" s="69">
+      <c r="B30" s="64">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="C30" s="69">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D30" s="69">
+      <c r="C30" s="64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="64">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="E30" s="69">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="69">
+      <c r="E30" s="64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="64">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="G30" s="69">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H30" s="69">
+      <c r="G30" s="64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="64">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I30" s="69">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J30" s="69">
+      <c r="I30" s="64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="64">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="K30" s="69">
-        <v>1</v>
-      </c>
-      <c r="L30" s="69">
+      <c r="K30" s="64">
+        <v>1</v>
+      </c>
+      <c r="L30" s="64">
         <v>28</v>
       </c>
-      <c r="M30" s="69">
-        <v>1</v>
-      </c>
-      <c r="N30" s="69">
+      <c r="M30" s="64">
+        <v>1</v>
+      </c>
+      <c r="N30" s="64">
         <v>28</v>
       </c>
-      <c r="O30" s="69">
-        <v>1</v>
-      </c>
-      <c r="P30" s="69">
+      <c r="O30" s="64">
+        <v>1</v>
+      </c>
+      <c r="P30" s="64">
         <v>28</v>
       </c>
-      <c r="Q30" s="69">
-        <v>1</v>
-      </c>
-      <c r="R30" s="69">
+      <c r="Q30" s="64">
+        <v>1</v>
+      </c>
+      <c r="R30" s="64">
         <v>28</v>
       </c>
-      <c r="S30" s="69">
-        <v>1</v>
-      </c>
-      <c r="T30" s="69">
+      <c r="S30" s="64">
+        <v>1</v>
+      </c>
+      <c r="T30" s="64">
         <v>28</v>
       </c>
-      <c r="U30" s="69">
-        <v>1</v>
-      </c>
-      <c r="V30" s="69">
+      <c r="U30" s="64">
+        <v>1</v>
+      </c>
+      <c r="V30" s="64">
         <v>28</v>
       </c>
-      <c r="W30" s="69">
-        <v>1</v>
-      </c>
-      <c r="X30" s="69">
+      <c r="W30" s="64">
+        <v>1</v>
+      </c>
+      <c r="X30" s="64">
         <v>28</v>
       </c>
-      <c r="Y30" s="69">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="69">
+      <c r="Y30" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="64">
         <v>28</v>
       </c>
-      <c r="AA30" s="69">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="69">
+      <c r="AA30" s="64">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="64">
         <v>28</v>
       </c>
-      <c r="AC30" s="69">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="69">
+      <c r="AC30" s="64">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="64">
         <v>28</v>
       </c>
       <c r="AE30">
@@ -8975,103 +8952,103 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A31" s="69">
+      <c r="A31" s="64">
         <v>29</v>
       </c>
-      <c r="B31" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="69">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="69">
-        <v>0</v>
-      </c>
-      <c r="L31" s="69">
-        <v>0</v>
-      </c>
-      <c r="M31" s="69">
-        <v>0</v>
-      </c>
-      <c r="N31" s="69">
-        <v>0</v>
-      </c>
-      <c r="O31" s="69">
-        <v>0</v>
-      </c>
-      <c r="P31" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="69">
-        <v>0</v>
-      </c>
-      <c r="R31" s="69">
-        <v>0</v>
-      </c>
-      <c r="S31" s="69">
-        <v>0</v>
-      </c>
-      <c r="T31" s="69">
-        <v>0</v>
-      </c>
-      <c r="U31" s="69">
-        <v>0</v>
-      </c>
-      <c r="V31" s="69">
-        <v>0</v>
-      </c>
-      <c r="W31" s="69">
-        <v>0</v>
-      </c>
-      <c r="X31" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="69">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="69">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="69">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="69">
+      <c r="B31" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="64">
+        <v>0</v>
+      </c>
+      <c r="L31" s="64">
+        <v>0</v>
+      </c>
+      <c r="M31" s="64">
+        <v>0</v>
+      </c>
+      <c r="N31" s="64">
+        <v>0</v>
+      </c>
+      <c r="O31" s="64">
+        <v>0</v>
+      </c>
+      <c r="P31" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="64">
+        <v>0</v>
+      </c>
+      <c r="R31" s="64">
+        <v>0</v>
+      </c>
+      <c r="S31" s="64">
+        <v>0</v>
+      </c>
+      <c r="T31" s="64">
+        <v>0</v>
+      </c>
+      <c r="U31" s="64">
+        <v>0</v>
+      </c>
+      <c r="V31" s="64">
+        <v>0</v>
+      </c>
+      <c r="W31" s="64">
+        <v>0</v>
+      </c>
+      <c r="X31" s="64">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="64">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="64">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="64">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="64">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="64">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="64">
         <v>0</v>
       </c>
       <c r="AE31">
@@ -9431,7 +9408,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A117" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
@@ -11466,10 +11443,10 @@
       <c r="Q56" s="4"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E57" s="68" t="s">
+      <c r="E57" s="70" t="s">
         <v>311</v>
       </c>
-      <c r="F57" s="68"/>
+      <c r="F57" s="70"/>
       <c r="N57" s="51">
         <v>23</v>
       </c>
@@ -11822,8 +11799,8 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
@@ -19356,10 +19333,10 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="Q4" s="68"/>
+      <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
@@ -21925,10 +21902,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="19" t="s">
         <v>99</v>
       </c>
@@ -21963,11 +21940,11 @@
         <v>23</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
@@ -22724,37 +22701,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="68"/>
+      <c r="M1" s="70"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="J2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="J2" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68" t="s">
+      <c r="K2" s="70"/>
+      <c r="L2" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="P2" s="68" t="s">
+      <c r="M2" s="70"/>
+      <c r="P2" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -22808,8 +22785,8 @@
         <v>123</v>
       </c>
       <c r="S3" s="25"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">

--- a/doc/notes/Cryptography.xlsx
+++ b/doc/notes/Cryptography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\doc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACC630E-F6AC-4222-9222-C4D51A9389E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855F156E-82E0-4C3E-9F3E-433F92195D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="2" activeTab="10" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
@@ -4954,7 +4954,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4998,11 +4998,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="64">
-        <f>C2*B2+1</f>
+        <f t="shared" ref="D2:D29" si="0">C2*B2+1</f>
         <v>29</v>
       </c>
       <c r="E2" s="64">
-        <f>MOD(POWER(A2,B2),D2)</f>
+        <f t="shared" ref="E2:E29" si="1">MOD(POWER(A2,B2),D2)</f>
         <v>1</v>
       </c>
       <c r="F2" s="64">
@@ -5010,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="64">
-        <f>MOD(POWER(F2,C2),D2)</f>
+        <f t="shared" ref="G2:G29" si="2">MOD(POWER(F2,C2),D2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5021,23 +5021,23 @@
       <c r="B3" s="65">
         <v>4</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="64">
         <v>7</v>
       </c>
       <c r="D3" s="65">
-        <f>C3*B3+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E3" s="65">
-        <f>MOD(POWER(A3,B3),D3)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F3" s="65">
-        <f t="shared" ref="F3:F30" si="0">E3</f>
+        <f t="shared" ref="F3:F29" si="3">E3</f>
         <v>16</v>
       </c>
       <c r="G3" s="65">
-        <f>MOD(POWER(F3,C3),D3)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5048,23 +5048,23 @@
       <c r="B4" s="65">
         <v>4</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="64">
         <v>7</v>
       </c>
       <c r="D4" s="65">
-        <f>C4*B4+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E4" s="65">
-        <f>MOD(POWER(A4,B4),D4)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="F4" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="G4" s="65">
-        <f>MOD(POWER(F4,C4),D4)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5075,23 +5075,23 @@
       <c r="B5" s="65">
         <v>4</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="64">
         <v>7</v>
       </c>
       <c r="D5" s="65">
-        <f>C5*B5+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E5" s="65">
-        <f>MOD(POWER(A5,B5),D5)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F5" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="G5" s="65">
-        <f>MOD(POWER(F5,C5),D5)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5102,23 +5102,23 @@
       <c r="B6" s="65">
         <v>4</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="64">
         <v>7</v>
       </c>
       <c r="D6" s="65">
-        <f>C6*B6+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E6" s="65">
-        <f>MOD(POWER(A6,B6),D6)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F6" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="G6" s="65">
-        <f>MOD(POWER(F6,C6),D6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5129,23 +5129,23 @@
       <c r="B7" s="65">
         <v>4</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="64">
         <v>7</v>
       </c>
       <c r="D7" s="65">
-        <f>C7*B7+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E7" s="65">
-        <f>MOD(POWER(A7,B7),D7)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F7" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G7" s="65">
-        <f>MOD(POWER(F7,C7),D7)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5156,23 +5156,23 @@
       <c r="B8" s="65">
         <v>4</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="64">
         <v>7</v>
       </c>
       <c r="D8" s="65">
-        <f>C8*B8+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E8" s="65">
-        <f>MOD(POWER(A8,B8),D8)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="F8" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="G8" s="65">
-        <f>MOD(POWER(F8,C8),D8)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5183,23 +5183,23 @@
       <c r="B9" s="65">
         <v>4</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="64">
         <v>7</v>
       </c>
       <c r="D9" s="65">
-        <f>C9*B9+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E9" s="65">
-        <f>MOD(POWER(A9,B9),D9)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F9" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G9" s="65">
-        <f>MOD(POWER(F9,C9),D9)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5210,23 +5210,23 @@
       <c r="B10" s="65">
         <v>4</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="64">
         <v>7</v>
       </c>
       <c r="D10" s="65">
-        <f>C10*B10+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E10" s="65">
-        <f>MOD(POWER(A10,B10),D10)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F10" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G10" s="65">
-        <f>MOD(POWER(F10,C10),D10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5237,23 +5237,23 @@
       <c r="B11" s="65">
         <v>4</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="64">
         <v>7</v>
       </c>
       <c r="D11" s="65">
-        <f>C11*B11+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E11" s="65">
-        <f>MOD(POWER(A11,B11),D11)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F11" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="G11" s="65">
-        <f>MOD(POWER(F11,C11),D11)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5264,23 +5264,23 @@
       <c r="B12" s="65">
         <v>4</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="64">
         <v>7</v>
       </c>
       <c r="D12" s="65">
-        <f>C12*B12+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E12" s="65">
-        <f>MOD(POWER(A12,B12),D12)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F12" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="G12" s="65">
-        <f>MOD(POWER(F12,C12),D12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5295,19 +5295,19 @@
         <v>7</v>
       </c>
       <c r="D13" s="64">
-        <f>C13*B13+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E13" s="64">
-        <f>MOD(POWER(A13,B13),D13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F13" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G13" s="64">
-        <f>MOD(POWER(F13,C13),D13)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5318,23 +5318,23 @@
       <c r="B14" s="65">
         <v>4</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="64">
         <v>7</v>
       </c>
       <c r="D14" s="65">
-        <f>C14*B14+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E14" s="65">
-        <f>MOD(POWER(A14,B14),D14)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F14" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="G14" s="65">
-        <f>MOD(POWER(F14,C14),D14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5345,23 +5345,23 @@
       <c r="B15" s="65">
         <v>4</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="64">
         <v>7</v>
       </c>
       <c r="D15" s="65">
-        <f>C15*B15+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E15" s="65">
-        <f>MOD(POWER(A15,B15),D15)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F15" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G15" s="65">
-        <f>MOD(POWER(F15,C15),D15)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5372,23 +5372,23 @@
       <c r="B16" s="65">
         <v>4</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="64">
         <v>7</v>
       </c>
       <c r="D16" s="65">
-        <f>C16*B16+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E16" s="65">
-        <f>MOD(POWER(A16,B16),D16)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F16" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G16" s="65">
-        <f>MOD(POWER(F16,C16),D16)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5399,23 +5399,23 @@
       <c r="B17" s="65">
         <v>4</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="64">
         <v>7</v>
       </c>
       <c r="D17" s="65">
-        <f>C17*B17+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E17" s="65">
-        <f>MOD(POWER(A17,B17),D17)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F17" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="G17" s="65">
-        <f>MOD(POWER(F17,C17),D17)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5430,19 +5430,19 @@
         <v>7</v>
       </c>
       <c r="D18" s="64">
-        <f>C18*B18+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E18" s="64">
-        <f>MOD(POWER(A18,B18),D18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F18" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G18" s="64">
-        <f>MOD(POWER(F18,C18),D18)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5453,23 +5453,23 @@
       <c r="B19" s="65">
         <v>4</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="64">
         <v>7</v>
       </c>
       <c r="D19" s="65">
-        <f>C19*B19+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E19" s="65">
-        <f>MOD(POWER(A19,B19),D19)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F19" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="G19" s="65">
-        <f>MOD(POWER(F19,C19),D19)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5480,23 +5480,23 @@
       <c r="B20" s="65">
         <v>4</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="64">
         <v>7</v>
       </c>
       <c r="D20" s="65">
-        <f>C20*B20+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E20" s="65">
-        <f>MOD(POWER(A20,B20),D20)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F20" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="G20" s="65">
-        <f>MOD(POWER(F20,C20),D20)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5507,23 +5507,23 @@
       <c r="B21" s="65">
         <v>4</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="64">
         <v>7</v>
       </c>
       <c r="D21" s="65">
-        <f>C21*B21+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E21" s="65">
-        <f>MOD(POWER(A21,B21),D21)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F21" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G21" s="65">
-        <f>MOD(POWER(F21,C21),D21)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5534,23 +5534,23 @@
       <c r="B22" s="65">
         <v>4</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="64">
         <v>7</v>
       </c>
       <c r="D22" s="65">
-        <f>C22*B22+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E22" s="65">
-        <f>MOD(POWER(A22,B22),D22)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F22" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G22" s="65">
-        <f>MOD(POWER(F22,C22),D22)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5561,23 +5561,23 @@
       <c r="B23" s="65">
         <v>4</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="64">
         <v>7</v>
       </c>
       <c r="D23" s="65">
-        <f>C23*B23+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E23" s="65">
-        <f>MOD(POWER(A23,B23),D23)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="F23" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="G23" s="65">
-        <f>MOD(POWER(F23,C23),D23)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5588,23 +5588,23 @@
       <c r="B24" s="65">
         <v>4</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="64">
         <v>7</v>
       </c>
       <c r="D24" s="65">
-        <f>C24*B24+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E24" s="65">
-        <f>MOD(POWER(A24,B24),D24)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F24" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G24" s="65">
-        <f>MOD(POWER(F24,C24),D24)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5615,23 +5615,23 @@
       <c r="B25" s="65">
         <v>4</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="64">
         <v>7</v>
       </c>
       <c r="D25" s="65">
-        <f>C25*B25+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E25" s="65">
-        <f>MOD(POWER(A25,B25),D25)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F25" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="G25" s="65">
-        <f>MOD(POWER(F25,C25),D25)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5642,23 +5642,23 @@
       <c r="B26" s="65">
         <v>4</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="64">
         <v>7</v>
       </c>
       <c r="D26" s="65">
-        <f>C26*B26+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E26" s="65">
-        <f>MOD(POWER(A26,B26),D26)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F26" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="G26" s="65">
-        <f>MOD(POWER(F26,C26),D26)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5669,23 +5669,23 @@
       <c r="B27" s="65">
         <v>4</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="64">
         <v>7</v>
       </c>
       <c r="D27" s="65">
-        <f>C27*B27+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E27" s="65">
-        <f>MOD(POWER(A27,B27),D27)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="F27" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="G27" s="65">
-        <f>MOD(POWER(F27,C27),D27)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5696,23 +5696,23 @@
       <c r="B28" s="65">
         <v>4</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="64">
         <v>7</v>
       </c>
       <c r="D28" s="65">
-        <f>C28*B28+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E28" s="65">
-        <f>MOD(POWER(A28,B28),D28)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F28" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="G28" s="65">
-        <f>MOD(POWER(F28,C28),D28)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5727,19 +5727,19 @@
         <v>7</v>
       </c>
       <c r="D29" s="64">
-        <f>C29*B29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="E29" s="64">
-        <f>MOD(POWER(A29,B29),D29)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F29" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G29" s="64">
-        <f>MOD(POWER(F29,C29),D29)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5758,7 +5758,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D35" sqref="D35"/>
-      <selection pane="topRight" activeCell="R9" sqref="R9"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6122,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:K31" si="2">MOD(POWER($A5,B$2),29)</f>
+        <f t="shared" ref="B5:L31" si="2">MOD(POWER($A5,B$2),29)</f>
         <v>3</v>
       </c>
       <c r="C5">
@@ -6652,55 +6652,55 @@
         <v>7</v>
       </c>
       <c r="Q9" s="65">
-        <f>MOD(POWER($A9,MOD(Q$2,$H$2)),29)</f>
+        <f t="shared" ref="Q9:AC9" si="3">MOD(POWER($A9,MOD(Q$2,$H$2)),29)</f>
         <v>20</v>
       </c>
       <c r="R9" s="65">
-        <f>MOD(POWER($A9,MOD(R$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="S9" s="65">
-        <f>MOD(POWER($A9,MOD(S$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="T9" s="65">
-        <f>MOD(POWER($A9,MOD(T$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="U9" s="65">
-        <f>MOD(POWER($A9,MOD(U$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="V9" s="65">
-        <f>MOD(POWER($A9,MOD(V$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W9" s="65">
-        <f>MOD(POWER($A9,MOD(W$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="X9" s="65">
-        <f>MOD(POWER($A9,MOD(X$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="Y9" s="65">
-        <f>MOD(POWER($A9,MOD(Y$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="Z9" s="65">
-        <f>MOD(POWER($A9,MOD(Z$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="AA9" s="65">
-        <f>MOD(POWER($A9,MOD(AA$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="AB9" s="65">
-        <f>MOD(POWER($A9,MOD(AB$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AC9" s="65">
-        <f>MOD(POWER($A9,MOD(AC$2,$H$2)),29)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD9" s="65">
@@ -7627,57 +7627,75 @@
         <v>25</v>
       </c>
       <c r="M18" s="65">
+        <f>MOD(POWER($A18,MOD(M$2,$H$2)),29)</f>
         <v>23</v>
       </c>
       <c r="N18" s="65">
+        <f>MOD(POWER($A18,MOD(N$2,$H$2)),29)</f>
         <v>20</v>
       </c>
       <c r="O18" s="65">
+        <f>MOD(POWER($A18,MOD(O$2,$H$2)),29)</f>
         <v>1</v>
       </c>
       <c r="P18" s="65">
+        <f>MOD(POWER($A18,MOD(P$2,$H$2)),29)</f>
         <v>16</v>
       </c>
       <c r="Q18" s="65">
+        <f>MOD(POWER($A18,MOD(Q$2,$H$2)),29)</f>
         <v>24</v>
       </c>
       <c r="R18" s="65">
+        <f>MOD(POWER($A18,MOD(R$2,$H$2)),29)</f>
         <v>7</v>
       </c>
       <c r="S18" s="65">
+        <f>MOD(POWER($A18,MOD(S$2,$H$2)),29)</f>
         <v>25</v>
       </c>
       <c r="T18" s="65">
+        <f>MOD(POWER($A18,MOD(T$2,$H$2)),29)</f>
         <v>23</v>
       </c>
       <c r="U18" s="65">
+        <f>MOD(POWER($A18,MOD(U$2,$H$2)),29)</f>
         <v>20</v>
       </c>
       <c r="V18" s="65">
+        <f>MOD(POWER($A18,MOD(V$2,$H$2)),29)</f>
         <v>1</v>
       </c>
       <c r="W18" s="65">
+        <f>MOD(POWER($A18,MOD(W$2,$H$2)),29)</f>
         <v>16</v>
       </c>
       <c r="X18" s="65">
+        <f>MOD(POWER($A18,MOD(X$2,$H$2)),29)</f>
         <v>24</v>
       </c>
       <c r="Y18" s="65">
+        <f>MOD(POWER($A18,MOD(Y$2,$H$2)),29)</f>
         <v>7</v>
       </c>
       <c r="Z18" s="65">
+        <f>MOD(POWER($A18,MOD(Z$2,$H$2)),29)</f>
         <v>25</v>
       </c>
       <c r="AA18" s="65">
+        <f>MOD(POWER($A18,MOD(AA$2,$H$2)),29)</f>
         <v>23</v>
       </c>
       <c r="AB18" s="65">
+        <f>MOD(POWER($A18,MOD(AB$2,$H$2)),29)</f>
         <v>20</v>
       </c>
       <c r="AC18" s="65">
+        <f>MOD(POWER($A18,MOD(AC$2,$H$2)),29)</f>
         <v>1</v>
       </c>
       <c r="AD18" s="65">
+        <f>MOD(POWER($A18,MOD(AD$2,$H$2)),29)</f>
         <v>16</v>
       </c>
       <c r="AE18">

--- a/doc/notes/Cryptography.xlsx
+++ b/doc/notes/Cryptography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\doc\crypto\doc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855F156E-82E0-4C3E-9F3E-433F92195D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E999DF85-694B-46D6-9521-8FCE6FE7A7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="2" activeTab="10" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
@@ -4954,7 +4954,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5758,14 +5758,14 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D35" sqref="D35"/>
-      <selection pane="topRight" activeCell="A18" sqref="A18"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>

--- a/doc/notes/Cryptography.xlsx
+++ b/doc/notes/Cryptography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\software\internal\python\crypto\doc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413AE45-598E-4E47-9B89-23AD8B4932AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACB959A-58B9-49F3-AED0-602FEEEAC0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21390" firstSheet="2" activeTab="12" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21390" firstSheet="6" activeTab="13" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
   <sheets>
     <sheet name="Substitution Ciphers" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="DH_1" sheetId="14" r:id="rId11"/>
     <sheet name="DH_2" sheetId="15" r:id="rId12"/>
     <sheet name="Fermat Factor" sheetId="16" r:id="rId13"/>
+    <sheet name="Shor Factor" sheetId="17" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="Primes">'RSA Example'!$A$5:$A$12</definedName>
@@ -1893,7 +1894,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1939,8 +1940,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1963,8 +1978,18 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2021,13 +2046,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2112,6 +2154,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2124,13 +2169,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2486,25 +2536,25 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="40" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="40" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
@@ -2517,31 +2567,31 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="42"/>
+      <c r="F3" s="43"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="14"/>
       <c r="M3" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="42"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
         <v>99</v>
@@ -4036,10 +4086,10 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="U31" s="43" t="s">
+      <c r="U31" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="V31" s="43"/>
+      <c r="V31" s="44"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U32" t="s">
@@ -8964,7 +9014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6478EAB-10C4-4EB5-89A6-2EE9C6454A11}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -9002,7 +9052,7 @@
         <v>251</v>
       </c>
       <c r="C2" s="18">
-        <f>A2*B2</f>
+        <f t="shared" ref="C2:C10" si="0">A2*B2</f>
         <v>32881</v>
       </c>
       <c r="D2">
@@ -9020,7 +9070,7 @@
         <v>1021</v>
       </c>
       <c r="C3" s="18">
-        <f>A3*B3</f>
+        <f t="shared" si="0"/>
         <v>519689</v>
       </c>
       <c r="D3">
@@ -9038,7 +9088,7 @@
         <v>4093</v>
       </c>
       <c r="C4" s="18">
-        <f>A4*B4</f>
+        <f t="shared" si="0"/>
         <v>8402929</v>
       </c>
       <c r="D4">
@@ -9056,7 +9106,7 @@
         <v>16381</v>
       </c>
       <c r="C5" s="18">
-        <f>A5*B5</f>
+        <f t="shared" si="0"/>
         <v>134471629</v>
       </c>
       <c r="D5">
@@ -9074,7 +9124,7 @@
         <v>65521</v>
       </c>
       <c r="C6" s="18">
-        <f>A6*B6</f>
+        <f t="shared" si="0"/>
         <v>2147188691</v>
       </c>
       <c r="D6">
@@ -9092,7 +9142,7 @@
         <v>262133</v>
       </c>
       <c r="C7" s="18">
-        <f>A7*B7</f>
+        <f t="shared" si="0"/>
         <v>34365898433</v>
       </c>
       <c r="D7">
@@ -9110,7 +9160,7 @@
         <v>1048571</v>
       </c>
       <c r="C8" s="18">
-        <f>A8*B8</f>
+        <f t="shared" si="0"/>
         <v>549752143877</v>
       </c>
       <c r="D8">
@@ -9128,7 +9178,7 @@
         <v>4194287</v>
       </c>
       <c r="C9" s="18">
-        <f>A9*B9</f>
+        <f t="shared" si="0"/>
         <v>8796019622041</v>
       </c>
       <c r="D9">
@@ -9146,7 +9196,7 @@
         <v>1677127</v>
       </c>
       <c r="C10" s="18">
-        <f>A10*B10</f>
+        <f t="shared" si="0"/>
         <v>14068698915517</v>
       </c>
       <c r="D10">
@@ -9163,7 +9213,7 @@
       <c r="B11">
         <v>67108529</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="40" t="s">
         <v>613</v>
       </c>
       <c r="D11">
@@ -9180,7 +9230,7 @@
       <c r="B12">
         <v>268434163</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="40" t="s">
         <v>612</v>
       </c>
       <c r="D12">
@@ -9197,7 +9247,7 @@
       <c r="B13">
         <v>1073736679</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="40" t="s">
         <v>611</v>
       </c>
       <c r="D13">
@@ -9214,7 +9264,7 @@
       <c r="B14">
         <v>4294946813</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="40" t="s">
         <v>610</v>
       </c>
       <c r="D14">
@@ -9226,6 +9276,1908 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089E2B05-4FBF-4D2C-95FC-1A454F13C2DB}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A1*A2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="39">
+        <f>MOD(POWER($A5,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>MOD(POWER($A5,C$4),$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f>MOD(POWER($A5,D$4),$A$3)</f>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f>MOD(POWER($A5,E$4),$A$3)</f>
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f>MOD(POWER($A5,F$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <f>MOD(POWER($A5,G$4),$A$3)</f>
+        <v>32</v>
+      </c>
+      <c r="H5" s="38">
+        <f>MOD(POWER($A5,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <f>MOD(POWER($A5,I$4),$A$3)</f>
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <f>MOD(POWER($A5,J$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <f>MOD(POWER($A5,K$4),$A$3)</f>
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <f>MOD(POWER($A5,L$4),$A$3)</f>
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <f>MOD(POWER($A5,M$4),$A$3)</f>
+        <v>18</v>
+      </c>
+      <c r="N5" s="39">
+        <f t="shared" ref="N5:AK11" si="0">MOD(POWER($A5,N$4),$A$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="39">
+        <f>MOD(POWER($A6,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>MOD(POWER($A6,C$4),$A$3)</f>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f>MOD(POWER($A6,D$4),$A$3)</f>
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <f>MOD(POWER($A6,E$4),$A$3)</f>
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <f>MOD(POWER($A6,F$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <f>MOD(POWER($A6,G$4),$A$3)</f>
+        <v>33</v>
+      </c>
+      <c r="H6" s="38">
+        <f>MOD(POWER($A6,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I6">
+        <f>MOD(POWER($A6,I$4),$A$3)</f>
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <f>MOD(POWER($A6,J$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <f>MOD(POWER($A6,K$4),$A$3)</f>
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <f>MOD(POWER($A6,L$4),$A$3)</f>
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f>MOD(POWER($A6,M$4),$A$3)</f>
+        <v>12</v>
+      </c>
+      <c r="N6" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="39">
+        <f>MOD(POWER($A7,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>MOD(POWER($A7,C$4),$A$3)</f>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f>MOD(POWER($A7,D$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="E7" s="38">
+        <f>MOD(POWER($A7,E$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <f>MOD(POWER($A7,F$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <f>MOD(POWER($A7,G$4),$A$3)</f>
+        <v>9</v>
+      </c>
+      <c r="H7" s="39">
+        <f>MOD(POWER($A7,H$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>MOD(POWER($A7,I$4),$A$3)</f>
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <f>MOD(POWER($A7,J$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <f>MOD(POWER($A7,K$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="L7">
+        <f>MOD(POWER($A7,L$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <f>MOD(POWER($A7,M$4),$A$3)</f>
+        <v>9</v>
+      </c>
+      <c r="N7" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="47">
+        <v>5</v>
+      </c>
+      <c r="B8" s="39">
+        <f>MOD(POWER($A8,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>MOD(POWER($A8,C$4),$A$3)</f>
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f>MOD(POWER($A8,D$4),$A$3)</f>
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <f>MOD(POWER($A8,E$4),$A$3)</f>
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <f>MOD(POWER($A8,F$4),$A$3)</f>
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <f>MOD(POWER($A8,G$4),$A$3)</f>
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <f>MOD(POWER($A8,H$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <f>MOD(POWER($A8,I$4),$A$3)</f>
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <f>MOD(POWER($A8,J$4),$A$3)</f>
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <f>MOD(POWER($A8,K$4),$A$3)</f>
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <f>MOD(POWER($A8,L$4),$A$3)</f>
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <f>MOD(POWER($A8,M$4),$A$3)</f>
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="39">
+        <f>MOD(POWER($A9,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="38">
+        <f>MOD(POWER($A9,C$4),$A$3)</f>
+        <v>6</v>
+      </c>
+      <c r="D9" s="39">
+        <f>MOD(POWER($A9,D$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>MOD(POWER($A9,E$4),$A$3)</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="46">
+        <f>MOD(POWER($A9,F$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>MOD(POWER($A9,G$4),$A$3)</f>
+        <v>6</v>
+      </c>
+      <c r="H9" s="46">
+        <f>MOD(POWER($A9,H$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>MOD(POWER($A9,I$4),$A$3)</f>
+        <v>6</v>
+      </c>
+      <c r="J9" s="46">
+        <f>MOD(POWER($A9,J$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>MOD(POWER($A9,K$4),$A$3)</f>
+        <v>6</v>
+      </c>
+      <c r="L9" s="46">
+        <f>MOD(POWER($A9,L$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>MOD(POWER($A9,M$4),$A$3)</f>
+        <v>6</v>
+      </c>
+      <c r="N9" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="47">
+        <v>7</v>
+      </c>
+      <c r="B10" s="39">
+        <f>MOD(POWER($A10,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>MOD(POWER($A10,C$4),$A$3)</f>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f>MOD(POWER($A10,D$4),$A$3)</f>
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <f>MOD(POWER($A10,E$4),$A$3)</f>
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <f>MOD(POWER($A10,F$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <f>MOD(POWER($A10,G$4),$A$3)</f>
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f>MOD(POWER($A10,H$4),$A$3)</f>
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <f>MOD(POWER($A10,I$4),$A$3)</f>
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <f>MOD(POWER($A10,J$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <f>MOD(POWER($A10,K$4),$A$3)</f>
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <f>MOD(POWER($A10,L$4),$A$3)</f>
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <f>MOD(POWER($A10,M$4),$A$3)</f>
+        <v>28</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="39">
+        <f>MOD(POWER($A11,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>MOD(POWER($A11,C$4),$A$3)</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="38">
+        <f>MOD(POWER($A11,D$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <f>MOD(POWER($A11,E$4),$A$3)</f>
+        <v>22</v>
+      </c>
+      <c r="F11" s="39">
+        <f>MOD(POWER($A11,F$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>MOD(POWER($A11,G$4),$A$3)</f>
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <f>MOD(POWER($A11,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <f>MOD(POWER($A11,I$4),$A$3)</f>
+        <v>22</v>
+      </c>
+      <c r="J11" s="46">
+        <f>MOD(POWER($A11,J$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f>MOD(POWER($A11,K$4),$A$3)</f>
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <f>MOD(POWER($A11,L$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <f>MOD(POWER($A11,M$4),$A$3)</f>
+        <v>22</v>
+      </c>
+      <c r="N11" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="39">
+        <f>MOD(POWER($A12,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>MOD(POWER($A12,C$4),$A$3)</f>
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f>MOD(POWER($A12,D$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="E12" s="38">
+        <f>MOD(POWER($A12,E$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <f>MOD(POWER($A12,F$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <f>MOD(POWER($A12,G$4),$A$3)</f>
+        <v>4</v>
+      </c>
+      <c r="H12" s="39">
+        <f>MOD(POWER($A12,H$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>MOD(POWER($A12,I$4),$A$3)</f>
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <f>MOD(POWER($A12,J$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <f>MOD(POWER($A12,K$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="L12">
+        <f>MOD(POWER($A12,L$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <f>MOD(POWER($A12,M$4),$A$3)</f>
+        <v>4</v>
+      </c>
+      <c r="N12" s="46">
+        <f t="shared" ref="N12:AK22" si="1">MOD(POWER($A12,N$4),$A$3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="47">
+        <v>10</v>
+      </c>
+      <c r="B13" s="39">
+        <f>MOD(POWER($A13,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>MOD(POWER($A13,C$4),$A$3)</f>
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <f>MOD(POWER($A13,D$4),$A$3)</f>
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <f>MOD(POWER($A13,E$4),$A$3)</f>
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <f>MOD(POWER($A13,F$4),$A$3)</f>
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <f>MOD(POWER($A13,G$4),$A$3)</f>
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <f>MOD(POWER($A13,H$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <f>MOD(POWER($A13,I$4),$A$3)</f>
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <f>MOD(POWER($A13,J$4),$A$3)</f>
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <f>MOD(POWER($A13,K$4),$A$3)</f>
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <f>MOD(POWER($A13,L$4),$A$3)</f>
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <f>MOD(POWER($A13,M$4),$A$3)</f>
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="39">
+        <f>MOD(POWER($A14,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>MOD(POWER($A14,C$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <f>MOD(POWER($A14,D$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="E14" s="39">
+        <f>MOD(POWER($A14,E$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f>MOD(POWER($A14,F$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <f>MOD(POWER($A14,G$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="H14" s="46">
+        <f>MOD(POWER($A14,H$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>MOD(POWER($A14,I$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <f>MOD(POWER($A14,J$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="K14" s="46">
+        <f>MOD(POWER($A14,K$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>MOD(POWER($A14,L$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <f>MOD(POWER($A14,M$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="N14" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="39">
+        <f>MOD(POWER($A15,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>MOD(POWER($A15,C$4),$A$3)</f>
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <f>MOD(POWER($A15,D$4),$A$3)</f>
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f>MOD(POWER($A15,E$4),$A$3)</f>
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <f>MOD(POWER($A15,F$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <f>MOD(POWER($A15,G$4),$A$3)</f>
+        <v>17</v>
+      </c>
+      <c r="H15" s="38">
+        <f>MOD(POWER($A15,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <f>MOD(POWER($A15,I$4),$A$3)</f>
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <f>MOD(POWER($A15,J$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <f>MOD(POWER($A15,K$4),$A$3)</f>
+        <v>27</v>
+      </c>
+      <c r="L15">
+        <f>MOD(POWER($A15,L$4),$A$3)</f>
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <f>MOD(POWER($A15,M$4),$A$3)</f>
+        <v>3</v>
+      </c>
+      <c r="N15" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="39">
+        <f t="shared" ref="B16:B23" si="2">MOD(POWER($A16,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f>MOD(POWER($A16,C$4),$A$3)</f>
+        <v>13</v>
+      </c>
+      <c r="D16" s="38">
+        <f>MOD(POWER($A16,D$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <f>MOD(POWER($A16,E$4),$A$3)</f>
+        <v>27</v>
+      </c>
+      <c r="F16" s="39">
+        <f>MOD(POWER($A16,F$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>MOD(POWER($A16,G$4),$A$3)</f>
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <f>MOD(POWER($A16,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <f>MOD(POWER($A16,I$4),$A$3)</f>
+        <v>27</v>
+      </c>
+      <c r="J16" s="46">
+        <f>MOD(POWER($A16,J$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f>MOD(POWER($A16,K$4),$A$3)</f>
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <f>MOD(POWER($A16,L$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <f>MOD(POWER($A16,M$4),$A$3)</f>
+        <v>27</v>
+      </c>
+      <c r="N16" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="47">
+        <v>14</v>
+      </c>
+      <c r="B17" s="39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>MOD(POWER($A17,C$4),$A$3)</f>
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <f>MOD(POWER($A17,D$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <f>MOD(POWER($A17,E$4),$A$3)</f>
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <f>MOD(POWER($A17,F$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <f>MOD(POWER($A17,G$4),$A$3)</f>
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <f>MOD(POWER($A17,H$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <f>MOD(POWER($A17,I$4),$A$3)</f>
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <f>MOD(POWER($A17,J$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="K17">
+        <f>MOD(POWER($A17,K$4),$A$3)</f>
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <f>MOD(POWER($A17,L$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <f>MOD(POWER($A17,M$4),$A$3)</f>
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="47">
+        <v>15</v>
+      </c>
+      <c r="B18" s="39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>MOD(POWER($A18,C$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <f>MOD(POWER($A18,D$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <f>MOD(POWER($A18,E$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <f>MOD(POWER($A18,F$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <f>MOD(POWER($A18,G$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <f>MOD(POWER($A18,H$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <f>MOD(POWER($A18,I$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <f>MOD(POWER($A18,J$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <f>MOD(POWER($A18,K$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <f>MOD(POWER($A18,L$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <f>MOD(POWER($A18,M$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>MOD(POWER($A19,C$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <f>MOD(POWER($A19,D$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="E19" s="39">
+        <f>MOD(POWER($A19,E$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>MOD(POWER($A19,F$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <f>MOD(POWER($A19,G$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="H19" s="46">
+        <f>MOD(POWER($A19,H$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f>MOD(POWER($A19,I$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <f>MOD(POWER($A19,J$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="K19" s="46">
+        <f>MOD(POWER($A19,K$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f>MOD(POWER($A19,L$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <f>MOD(POWER($A19,M$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="N19" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f>MOD(POWER($A20,C$4),$A$3)</f>
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <f>MOD(POWER($A20,D$4),$A$3)</f>
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <f>MOD(POWER($A20,E$4),$A$3)</f>
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <f>MOD(POWER($A20,F$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <f>MOD(POWER($A20,G$4),$A$3)</f>
+        <v>12</v>
+      </c>
+      <c r="H20" s="38">
+        <f>MOD(POWER($A20,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <f>MOD(POWER($A20,I$4),$A$3)</f>
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <f>MOD(POWER($A20,J$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <f>MOD(POWER($A20,K$4),$A$3)</f>
+        <v>27</v>
+      </c>
+      <c r="L20">
+        <f>MOD(POWER($A20,L$4),$A$3)</f>
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <f>MOD(POWER($A20,M$4),$A$3)</f>
+        <v>33</v>
+      </c>
+      <c r="N20" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f>MOD(POWER($A21,C$4),$A$3)</f>
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <f>MOD(POWER($A21,D$4),$A$3)</f>
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <f>MOD(POWER($A21,E$4),$A$3)</f>
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <f>MOD(POWER($A21,F$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <f>MOD(POWER($A21,G$4),$A$3)</f>
+        <v>23</v>
+      </c>
+      <c r="H21" s="38">
+        <f>MOD(POWER($A21,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <f>MOD(POWER($A21,I$4),$A$3)</f>
+        <v>32</v>
+      </c>
+      <c r="J21">
+        <f>MOD(POWER($A21,J$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <f>MOD(POWER($A21,K$4),$A$3)</f>
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <f>MOD(POWER($A21,L$4),$A$3)</f>
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="45">
+        <v>19</v>
+      </c>
+      <c r="B22" s="48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C22" s="45">
+        <f>MOD(POWER($A22,C$4),$A$3)</f>
+        <v>19</v>
+      </c>
+      <c r="D22" s="45">
+        <f>MOD(POWER($A22,D$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="E22" s="49">
+        <f>MOD(POWER($A22,E$4),$A$3)</f>
+        <v>34</v>
+      </c>
+      <c r="F22" s="45">
+        <f>MOD(POWER($A22,F$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="G22" s="45">
+        <f>MOD(POWER($A22,G$4),$A$3)</f>
+        <v>24</v>
+      </c>
+      <c r="H22" s="48">
+        <f>MOD(POWER($A22,H$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="45">
+        <f>MOD(POWER($A22,I$4),$A$3)</f>
+        <v>19</v>
+      </c>
+      <c r="J22" s="45">
+        <f>MOD(POWER($A22,J$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="K22" s="45">
+        <f>MOD(POWER($A22,K$4),$A$3)</f>
+        <v>34</v>
+      </c>
+      <c r="L22" s="45">
+        <f>MOD(POWER($A22,L$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="M22" s="45">
+        <v>24</v>
+      </c>
+      <c r="N22" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="47">
+        <v>20</v>
+      </c>
+      <c r="B23" s="39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f>MOD(POWER($A23,C$4),$A$3)</f>
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <f>MOD(POWER($A23,D$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <f>MOD(POWER($A23,E$4),$A$3)</f>
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <f>MOD(POWER($A23,F$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <f>MOD(POWER($A23,G$4),$A$3)</f>
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <f>MOD(POWER($A23,H$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="I23">
+        <f>MOD(POWER($A23,I$4),$A$3)</f>
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <f>MOD(POWER($A23,J$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="K23">
+        <f>MOD(POWER($A23,K$4),$A$3)</f>
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <f>MOD(POWER($A23,L$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="47">
+        <v>21</v>
+      </c>
+      <c r="B24" s="39">
+        <f t="shared" ref="B24:B37" si="3">MOD(POWER($A24,B$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f>MOD(POWER($A24,C$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <f>MOD(POWER($A24,D$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <f>MOD(POWER($A24,E$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <f>MOD(POWER($A24,F$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <f>MOD(POWER($A24,G$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="H24">
+        <f>MOD(POWER($A24,H$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <f>MOD(POWER($A24,I$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <f>MOD(POWER($A24,J$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="K24">
+        <f>MOD(POWER($A24,K$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="L24">
+        <f>MOD(POWER($A24,L$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>21</v>
+      </c>
+      <c r="N24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f>MOD(POWER($A25,C$4),$A$3)</f>
+        <v>22</v>
+      </c>
+      <c r="D25" s="38">
+        <f>MOD(POWER($A25,D$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <f>MOD(POWER($A25,E$4),$A$3)</f>
+        <v>8</v>
+      </c>
+      <c r="F25" s="39">
+        <f>MOD(POWER($A25,F$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f>MOD(POWER($A25,G$4),$A$3)</f>
+        <v>22</v>
+      </c>
+      <c r="H25">
+        <f>MOD(POWER($A25,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I25">
+        <f>MOD(POWER($A25,I$4),$A$3)</f>
+        <v>8</v>
+      </c>
+      <c r="J25" s="46">
+        <f>MOD(POWER($A25,J$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f>MOD(POWER($A25,K$4),$A$3)</f>
+        <v>22</v>
+      </c>
+      <c r="L25">
+        <f>MOD(POWER($A25,L$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f>MOD(POWER($A26,C$4),$A$3)</f>
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <f>MOD(POWER($A26,D$4),$A$3)</f>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f>MOD(POWER($A26,E$4),$A$3)</f>
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <f>MOD(POWER($A26,F$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <f>MOD(POWER($A26,G$4),$A$3)</f>
+        <v>18</v>
+      </c>
+      <c r="H26" s="38">
+        <f>MOD(POWER($A26,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I26">
+        <f>MOD(POWER($A26,I$4),$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <f>MOD(POWER($A26,J$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <f>MOD(POWER($A26,K$4),$A$3)</f>
+        <v>8</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="45">
+        <v>24</v>
+      </c>
+      <c r="B27" s="48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="45">
+        <f>MOD(POWER($A27,C$4),$A$3)</f>
+        <v>24</v>
+      </c>
+      <c r="D27" s="45">
+        <f>MOD(POWER($A27,D$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="E27" s="49">
+        <f>MOD(POWER($A27,E$4),$A$3)</f>
+        <v>34</v>
+      </c>
+      <c r="F27" s="45">
+        <f>MOD(POWER($A27,F$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="G27" s="45">
+        <f>MOD(POWER($A27,G$4),$A$3)</f>
+        <v>19</v>
+      </c>
+      <c r="H27" s="48">
+        <f>MOD(POWER($A27,H$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="45">
+        <f>MOD(POWER($A27,I$4),$A$3)</f>
+        <v>24</v>
+      </c>
+      <c r="J27" s="45">
+        <f>MOD(POWER($A27,J$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="K27" s="45">
+        <f>MOD(POWER($A27,K$4),$A$3)</f>
+        <v>34</v>
+      </c>
+      <c r="L27" s="45">
+        <v>11</v>
+      </c>
+      <c r="M27" s="45">
+        <v>19</v>
+      </c>
+      <c r="N27" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="47">
+        <v>25</v>
+      </c>
+      <c r="B28" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f>MOD(POWER($A28,C$4),$A$3)</f>
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <f>MOD(POWER($A28,D$4),$A$3)</f>
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <f>MOD(POWER($A28,E$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <f>MOD(POWER($A28,F$4),$A$3)</f>
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <f>MOD(POWER($A28,G$4),$A$3)</f>
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <f>MOD(POWER($A28,H$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <f>MOD(POWER($A28,I$4),$A$3)</f>
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <f>MOD(POWER($A28,J$4),$A$3)</f>
+        <v>30</v>
+      </c>
+      <c r="K28">
+        <f>MOD(POWER($A28,K$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>30</v>
+      </c>
+      <c r="N28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f>MOD(POWER($A29,C$4),$A$3)</f>
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <f>MOD(POWER($A29,D$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="E29" s="38">
+        <f>MOD(POWER($A29,E$4),$A$3)</f>
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <f>MOD(POWER($A29,F$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <f>MOD(POWER($A29,G$4),$A$3)</f>
+        <v>31</v>
+      </c>
+      <c r="H29" s="39">
+        <f>MOD(POWER($A29,H$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f>MOD(POWER($A29,I$4),$A$3)</f>
+        <v>26</v>
+      </c>
+      <c r="J29">
+        <f>MOD(POWER($A29,J$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <f>MOD(POWER($A29,K$4),$A$3)</f>
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>16</v>
+      </c>
+      <c r="M29">
+        <v>31</v>
+      </c>
+      <c r="N29" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f>MOD(POWER($A30,C$4),$A$3)</f>
+        <v>27</v>
+      </c>
+      <c r="D30" s="38">
+        <f>MOD(POWER($A30,D$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <f>MOD(POWER($A30,E$4),$A$3)</f>
+        <v>13</v>
+      </c>
+      <c r="F30" s="39">
+        <f>MOD(POWER($A30,F$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f>MOD(POWER($A30,G$4),$A$3)</f>
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <f>MOD(POWER($A30,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I30">
+        <f>MOD(POWER($A30,I$4),$A$3)</f>
+        <v>13</v>
+      </c>
+      <c r="J30" s="46">
+        <f>MOD(POWER($A30,J$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f>MOD(POWER($A30,K$4),$A$3)</f>
+        <v>27</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>13</v>
+      </c>
+      <c r="N30" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f>MOD(POWER($A31,C$4),$A$3)</f>
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <f>MOD(POWER($A31,D$4),$A$3)</f>
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <f>MOD(POWER($A31,E$4),$A$3)</f>
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <f>MOD(POWER($A31,F$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="G31">
+        <f>MOD(POWER($A31,G$4),$A$3)</f>
+        <v>28</v>
+      </c>
+      <c r="H31">
+        <f>MOD(POWER($A31,H$4),$A$3)</f>
+        <v>14</v>
+      </c>
+      <c r="I31">
+        <f>MOD(POWER($A31,I$4),$A$3)</f>
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <f>MOD(POWER($A31,J$4),$A$3)</f>
+        <v>21</v>
+      </c>
+      <c r="K31">
+        <f>MOD(POWER($A31,K$4),$A$3)</f>
+        <v>28</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="38">
+        <f>MOD(POWER($A32,C$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="D32" s="39">
+        <f>MOD(POWER($A32,D$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f>MOD(POWER($A32,E$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="F32" s="46">
+        <f>MOD(POWER($A32,F$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f>MOD(POWER($A32,G$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="H32" s="46">
+        <f>MOD(POWER($A32,H$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f>MOD(POWER($A32,I$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="J32" s="46">
+        <f>MOD(POWER($A32,J$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <f>MOD(POWER($A32,K$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="L32" s="46">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="47">
+        <v>30</v>
+      </c>
+      <c r="B33" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f>MOD(POWER($A33,C$4),$A$3)</f>
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <f>MOD(POWER($A33,D$4),$A$3)</f>
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <f>MOD(POWER($A33,E$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <f>MOD(POWER($A33,F$4),$A$3)</f>
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <f>MOD(POWER($A33,G$4),$A$3)</f>
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <f>MOD(POWER($A33,H$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <f>MOD(POWER($A33,I$4),$A$3)</f>
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <f>MOD(POWER($A33,J$4),$A$3)</f>
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <f>MOD(POWER($A33,K$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f>MOD(POWER($A34,C$4),$A$3)</f>
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <f>MOD(POWER($A34,D$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="E34" s="38">
+        <f>MOD(POWER($A34,E$4),$A$3)</f>
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <f>MOD(POWER($A34,F$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <f>MOD(POWER($A34,G$4),$A$3)</f>
+        <v>26</v>
+      </c>
+      <c r="H34" s="39">
+        <f>MOD(POWER($A34,H$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f>MOD(POWER($A34,I$4),$A$3)</f>
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <f>MOD(POWER($A34,J$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <f>MOD(POWER($A34,K$4),$A$3)</f>
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>11</v>
+      </c>
+      <c r="M34">
+        <v>26</v>
+      </c>
+      <c r="N34" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f>MOD(POWER($A35,C$4),$A$3)</f>
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <f>MOD(POWER($A35,D$4),$A$3)</f>
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <f>MOD(POWER($A35,E$4),$A$3)</f>
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <f>MOD(POWER($A35,F$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <f>MOD(POWER($A35,G$4),$A$3)</f>
+        <v>2</v>
+      </c>
+      <c r="H35" s="38">
+        <f>MOD(POWER($A35,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I35">
+        <f>MOD(POWER($A35,I$4),$A$3)</f>
+        <v>18</v>
+      </c>
+      <c r="J35">
+        <f>MOD(POWER($A35,J$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="K35">
+        <f>MOD(POWER($A35,K$4),$A$3)</f>
+        <v>22</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <v>14</v>
+      </c>
+      <c r="N35" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f>MOD(POWER($A36,C$4),$A$3)</f>
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <f>MOD(POWER($A36,D$4),$A$3)</f>
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <f>MOD(POWER($A36,E$4),$A$3)</f>
+        <v>27</v>
+      </c>
+      <c r="F36">
+        <f>MOD(POWER($A36,F$4),$A$3)</f>
+        <v>16</v>
+      </c>
+      <c r="G36">
+        <f>MOD(POWER($A36,G$4),$A$3)</f>
+        <v>3</v>
+      </c>
+      <c r="H36" s="38">
+        <f>MOD(POWER($A36,H$4),$A$3)</f>
+        <v>29</v>
+      </c>
+      <c r="I36">
+        <f>MOD(POWER($A36,I$4),$A$3)</f>
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <f>MOD(POWER($A36,J$4),$A$3)</f>
+        <v>11</v>
+      </c>
+      <c r="K36">
+        <v>19</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>22</v>
+      </c>
+      <c r="N36" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C37" s="47">
+        <f>MOD(POWER($A37,C$4),$A$3)</f>
+        <v>34</v>
+      </c>
+      <c r="D37" s="39">
+        <f>MOD(POWER($A37,D$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f>MOD(POWER($A37,E$4),$A$3)</f>
+        <v>34</v>
+      </c>
+      <c r="F37" s="46">
+        <f>MOD(POWER($A37,F$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f>MOD(POWER($A37,G$4),$A$3)</f>
+        <v>34</v>
+      </c>
+      <c r="H37" s="46">
+        <f>MOD(POWER($A37,H$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f>MOD(POWER($A37,I$4),$A$3)</f>
+        <v>34</v>
+      </c>
+      <c r="J37" s="46">
+        <f>MOD(POWER($A37,J$4),$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>34</v>
+      </c>
+      <c r="L37" s="46">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>34</v>
+      </c>
+      <c r="N37" s="46">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11611,10 +13563,10 @@
       <c r="Q56" s="4"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="F57" s="41"/>
+      <c r="F57" s="42"/>
       <c r="N57" s="32">
         <v>23</v>
       </c>
@@ -11967,8 +13919,8 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
@@ -19435,10 +21387,10 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="42" t="s">
         <v>602</v>
       </c>
-      <c r="Q4" s="41"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
@@ -22004,10 +23956,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="1" t="s">
         <v>99</v>
       </c>
@@ -22042,11 +23994,11 @@
         <v>23</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -22803,37 +24755,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="41"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="J2" s="41" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="J2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="P2" s="41" t="s">
+      <c r="M2" s="42"/>
+      <c r="P2" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -22887,8 +24839,8 @@
         <v>123</v>
       </c>
       <c r="S3" s="1"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">

--- a/doc/notes/Cryptography.xlsx
+++ b/doc/notes/Cryptography.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\software\internal\python\crypto\doc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACB959A-58B9-49F3-AED0-602FEEEAC0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4223D11E-8274-4BC9-AD21-3B49A1AEF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21390" firstSheet="6" activeTab="13" xr2:uid="{6349FD4F-D13B-4095-B9BB-C39254E42942}"/>
   </bookViews>
@@ -9281,31 +9281,31 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089E2B05-4FBF-4D2C-95FC-1A454F13C2DB}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:AL37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A1*A2</f>
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -9345,8 +9345,80 @@
       <c r="N4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>14</v>
+      </c>
+      <c r="Q4">
+        <v>15</v>
+      </c>
+      <c r="R4">
+        <v>16</v>
+      </c>
+      <c r="S4">
+        <v>17</v>
+      </c>
+      <c r="T4">
+        <v>18</v>
+      </c>
+      <c r="U4">
+        <v>19</v>
+      </c>
+      <c r="V4">
+        <v>20</v>
+      </c>
+      <c r="W4">
+        <v>21</v>
+      </c>
+      <c r="X4">
+        <v>22</v>
+      </c>
+      <c r="Y4">
+        <v>23</v>
+      </c>
+      <c r="Z4">
+        <v>24</v>
+      </c>
+      <c r="AA4">
+        <v>25</v>
+      </c>
+      <c r="AB4">
+        <v>26</v>
+      </c>
+      <c r="AC4">
+        <v>27</v>
+      </c>
+      <c r="AD4">
+        <v>28</v>
+      </c>
+      <c r="AE4">
+        <v>29</v>
+      </c>
+      <c r="AF4">
+        <v>30</v>
+      </c>
+      <c r="AG4">
+        <v>31</v>
+      </c>
+      <c r="AH4">
+        <v>32</v>
+      </c>
+      <c r="AI4">
+        <v>33</v>
+      </c>
+      <c r="AJ4">
+        <v>34</v>
+      </c>
+      <c r="AK4">
+        <v>35</v>
+      </c>
+      <c r="AL4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9402,8 +9474,28 @@
         <f t="shared" ref="N5:AK11" si="0">MOD(POWER($A5,N$4),$A$3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P5" s="39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="39">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R5" s="39">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S5" s="39">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9459,8 +9551,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P6" s="39">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q6" s="39">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="R6" s="39">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="S6" s="39">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9516,8 +9628,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P7" s="46">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q7" s="46">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R7" s="46">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="S7" s="46">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="47">
         <v>5</v>
       </c>
@@ -9573,8 +9705,28 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9630,8 +9782,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="P9" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R9" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="47">
         <v>7</v>
       </c>
@@ -9687,8 +9859,28 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="S10" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9744,8 +9936,28 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="46">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P11" s="46">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="Q11" s="46">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="R11" s="46" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S11" s="46" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -9798,11 +10010,82 @@
         <v>4</v>
       </c>
       <c r="N12" s="46">
-        <f t="shared" ref="N12:AK22" si="1">MOD(POWER($A12,N$4),$A$3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="46">
+        <v>9</v>
+      </c>
+      <c r="P12" s="46">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>29</v>
+      </c>
+      <c r="R12" s="46">
+        <v>16</v>
+      </c>
+      <c r="S12" s="46">
+        <v>4</v>
+      </c>
+      <c r="T12" s="46">
+        <v>1</v>
+      </c>
+      <c r="U12" s="46">
+        <v>9</v>
+      </c>
+      <c r="V12" s="46">
+        <v>11</v>
+      </c>
+      <c r="W12" s="46">
+        <v>29</v>
+      </c>
+      <c r="X12" s="46">
+        <v>16</v>
+      </c>
+      <c r="Y12" s="46">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="46">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="46">
+        <v>11</v>
+      </c>
+      <c r="AC12" s="46">
+        <v>29</v>
+      </c>
+      <c r="AD12" s="46">
+        <v>16</v>
+      </c>
+      <c r="AE12" s="46">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="46">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="46">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="46">
+        <v>11</v>
+      </c>
+      <c r="AI12" s="46">
+        <v>29</v>
+      </c>
+      <c r="AJ12" s="46">
+        <v>16</v>
+      </c>
+      <c r="AK12" s="46">
+        <v>4</v>
+      </c>
+      <c r="AL12" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="47">
         <v>10</v>
       </c>
@@ -9855,11 +10138,31 @@
         <v>5</v>
       </c>
       <c r="N13">
+        <f t="shared" ref="N12:AK22" si="1">MOD(POWER($A13,N$4),$A$3)</f>
+        <v>15</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="P13" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q13" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R13" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S13" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9915,8 +10218,28 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="46">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="P14" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q14" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R14" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S14" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -9972,8 +10295,28 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P15" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q15" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R15" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S15" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -10029,8 +10372,28 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P16" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q16" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R16" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S16" s="46" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="47">
         <v>14</v>
       </c>
@@ -10085,8 +10448,23 @@
       <c r="N17">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>21</v>
+      </c>
+      <c r="P17">
+        <v>21</v>
+      </c>
+      <c r="Q17">
+        <v>21</v>
+      </c>
+      <c r="R17">
+        <v>21</v>
+      </c>
+      <c r="S17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>15</v>
       </c>
@@ -10141,8 +10519,23 @@
       <c r="N18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -10197,8 +10590,23 @@
       <c r="N19" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="46">
+        <v>1</v>
+      </c>
+      <c r="P19" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>1</v>
+      </c>
+      <c r="R19" s="46">
+        <v>1</v>
+      </c>
+      <c r="S19" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -10250,11 +10658,26 @@
         <f>MOD(POWER($A20,M$4),$A$3)</f>
         <v>33</v>
       </c>
-      <c r="N20" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N20" s="46">
+        <v>15</v>
+      </c>
+      <c r="O20" s="39">
+        <v>15</v>
+      </c>
+      <c r="P20" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>1</v>
+      </c>
+      <c r="R20" s="39">
+        <v>1</v>
+      </c>
+      <c r="S20" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -10308,8 +10731,23 @@
       <c r="N21" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="39">
+        <v>1</v>
+      </c>
+      <c r="P21" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="39">
+        <v>1</v>
+      </c>
+      <c r="R21" s="39">
+        <v>1</v>
+      </c>
+      <c r="S21" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="45">
         <v>19</v>
       </c>
@@ -10363,8 +10801,23 @@
       <c r="N22" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="50">
+        <v>1</v>
+      </c>
+      <c r="P22" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="50">
+        <v>1</v>
+      </c>
+      <c r="R22" s="50">
+        <v>1</v>
+      </c>
+      <c r="S22" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="47">
         <v>20</v>
       </c>
@@ -10418,8 +10871,23 @@
       <c r="N23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23">
+        <v>15</v>
+      </c>
+      <c r="P23">
+        <v>15</v>
+      </c>
+      <c r="Q23">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>15</v>
+      </c>
+      <c r="S23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>21</v>
       </c>
@@ -10473,8 +10941,23 @@
       <c r="N24">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24">
+        <v>21</v>
+      </c>
+      <c r="P24">
+        <v>21</v>
+      </c>
+      <c r="Q24">
+        <v>21</v>
+      </c>
+      <c r="R24">
+        <v>21</v>
+      </c>
+      <c r="S24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -10528,8 +11011,23 @@
       <c r="N25" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="46">
+        <v>1</v>
+      </c>
+      <c r="P25" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="46">
+        <v>1</v>
+      </c>
+      <c r="R25" s="46">
+        <v>1</v>
+      </c>
+      <c r="S25" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -10582,8 +11080,23 @@
       <c r="N26" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="39">
+        <v>1</v>
+      </c>
+      <c r="P26" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="39">
+        <v>1</v>
+      </c>
+      <c r="R26" s="39">
+        <v>1</v>
+      </c>
+      <c r="S26" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="45">
         <v>24</v>
       </c>
@@ -10636,8 +11149,23 @@
       <c r="N27" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="50">
+        <v>1</v>
+      </c>
+      <c r="P27" s="50">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="50">
+        <v>1</v>
+      </c>
+      <c r="R27" s="50">
+        <v>1</v>
+      </c>
+      <c r="S27" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <v>25</v>
       </c>
@@ -10690,8 +11218,23 @@
       <c r="N28">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28">
+        <v>15</v>
+      </c>
+      <c r="P28">
+        <v>15</v>
+      </c>
+      <c r="Q28">
+        <v>15</v>
+      </c>
+      <c r="R28">
+        <v>15</v>
+      </c>
+      <c r="S28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -10744,8 +11287,23 @@
       <c r="N29" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="46">
+        <v>1</v>
+      </c>
+      <c r="P29" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="46">
+        <v>1</v>
+      </c>
+      <c r="R29" s="46">
+        <v>1</v>
+      </c>
+      <c r="S29" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -10798,8 +11356,23 @@
       <c r="N30" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="46">
+        <v>1</v>
+      </c>
+      <c r="P30" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="46">
+        <v>1</v>
+      </c>
+      <c r="R30" s="46">
+        <v>1</v>
+      </c>
+      <c r="S30" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -10852,8 +11425,23 @@
       <c r="N31">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31">
+        <v>21</v>
+      </c>
+      <c r="P31">
+        <v>21</v>
+      </c>
+      <c r="Q31">
+        <v>21</v>
+      </c>
+      <c r="R31">
+        <v>21</v>
+      </c>
+      <c r="S31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -10906,8 +11494,23 @@
       <c r="N32" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="46">
+        <v>1</v>
+      </c>
+      <c r="P32" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="46">
+        <v>1</v>
+      </c>
+      <c r="R32" s="46">
+        <v>1</v>
+      </c>
+      <c r="S32" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="47">
         <v>30</v>
       </c>
@@ -10960,8 +11563,23 @@
       <c r="N33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <v>15</v>
+      </c>
+      <c r="P33">
+        <v>15</v>
+      </c>
+      <c r="Q33">
+        <v>15</v>
+      </c>
+      <c r="R33">
+        <v>15</v>
+      </c>
+      <c r="S33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -11014,8 +11632,23 @@
       <c r="N34" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="46">
+        <v>1</v>
+      </c>
+      <c r="P34" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="46">
+        <v>1</v>
+      </c>
+      <c r="R34" s="46">
+        <v>1</v>
+      </c>
+      <c r="S34" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -11068,8 +11701,23 @@
       <c r="N35" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35" s="39">
+        <v>1</v>
+      </c>
+      <c r="P35" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="39">
+        <v>1</v>
+      </c>
+      <c r="R35" s="39">
+        <v>1</v>
+      </c>
+      <c r="S35" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -11121,8 +11769,23 @@
       <c r="N36" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="39">
+        <v>1</v>
+      </c>
+      <c r="P36" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="39">
+        <v>1</v>
+      </c>
+      <c r="R36" s="39">
+        <v>1</v>
+      </c>
+      <c r="S36" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -11172,6 +11835,21 @@
         <v>34</v>
       </c>
       <c r="N37" s="46">
+        <v>1</v>
+      </c>
+      <c r="O37" s="46">
+        <v>1</v>
+      </c>
+      <c r="P37" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="46">
+        <v>1</v>
+      </c>
+      <c r="R37" s="46">
+        <v>1</v>
+      </c>
+      <c r="S37" s="46">
         <v>1</v>
       </c>
     </row>
